--- a/medicine/Sexualité et sexologie/Erika_Eiffel/Erika_Eiffel.xlsx
+++ b/medicine/Sexualité et sexologie/Erika_Eiffel/Erika_Eiffel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Erika LaBrie, dite Aya ou Erika Eiffel, née en 1972, est une Américaine connue pour s'être mariée à la tour Eiffel[1],[2],[3],[4] dans un mariage « objecto-sexuel » en 2007[5]. Elle a découvert la tour Eiffel en 2004 et a ressenti une attirance immédiate[1].
-Elle est fondatrice de OS Internationale[6], une organisation de personnes aimant les objets inanimés, et est apparue en tant que porte-parole dans différents média écrits, radiodiffusés et télévisuels[7]. Son amour pour la tour Eiffel a fait l'objet de nombreuses publications et documentaires[Lesquels ?]. En ce qui concerne l'attirance pour les objets inanimés elle déclare : « nous ressentons une connexion innée aux objets. Il nous apparaît tout à fait normal de nous y connecter à différents niveaux, émotionnel, spirituel et aussi physique pour certains »[2].
+Erika LaBrie, dite Aya ou Erika Eiffel, née en 1972, est une Américaine connue pour s'être mariée à la tour Eiffel dans un mariage « objecto-sexuel » en 2007. Elle a découvert la tour Eiffel en 2004 et a ressenti une attirance immédiate.
+Elle est fondatrice de OS Internationale, une organisation de personnes aimant les objets inanimés, et est apparue en tant que porte-parole dans différents média écrits, radiodiffusés et télévisuels. Son amour pour la tour Eiffel a fait l'objet de nombreuses publications et documentaires[Lesquels ?]. En ce qui concerne l'attirance pour les objets inanimés elle déclare : « nous ressentons une connexion innée aux objets. Il nous apparaît tout à fait normal de nous y connecter à différents niveaux, émotionnel, spirituel et aussi physique pour certains ».
 En avril 2009, pour le deuxième anniversaire de son mariage avec la tour Eiffel, elle a participé à Good Morning America, racontant comment l'objet de son amour l'avait rendue plus forte.
-Ancienne militaire américaine, elle est rentrée dans la United States Air Force Academy en 1993 mais a dû démissionner après avoir été victime d'une agression sexuelle[8]. Elle est également championne de tir à l'arc[9],[6][précision nécessaire] et continue de concourir à un niveau international.
+Ancienne militaire américaine, elle est rentrée dans la United States Air Force Academy en 1993 mais a dû démissionner après avoir été victime d'une agression sexuelle. Elle est également championne de tir à l'arc,[précision nécessaire] et continue de concourir à un niveau international.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2020, son histoire inspire le film Jumbo de la réalisatrice belge Zoé Wittock[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, son histoire inspire le film Jumbo de la réalisatrice belge Zoé Wittock.
 </t>
         </is>
       </c>
